--- a/templates/dataplant/Imaging_sample/Imaging_sample_v2.0.0.xlsx
+++ b/templates/dataplant/Imaging_sample/Imaging_sample_v2.0.0.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B2DB70-BB0C-4D47-8343-B08429BE34F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74247B9-FF9C-4CD3-820B-ED80E9921876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1995" yWindow="435" windowWidth="24510" windowHeight="15045" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isa_template" sheetId="1" r:id="rId1"/>
@@ -90,9 +90,6 @@
     <t>Tags Term Source REF</t>
   </si>
   <si>
-    <t>AFO</t>
-  </si>
-  <si>
     <t>MS</t>
   </si>
   <si>
@@ -367,6 +364,9 @@
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/MS_1000457</t>
+  </si>
+  <si>
+    <t>AFP</t>
   </si>
 </sst>
 </file>
@@ -402,12 +402,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -816,17 +815,17 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -834,7 +833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -842,7 +841,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -850,7 +849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -858,7 +857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -866,7 +865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -874,32 +873,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -910,113 +909,113 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
       <c r="B15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>28</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>33</v>
       </c>
-      <c r="D18" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>40</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
         <v>41</v>
       </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1031,262 +1030,262 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>50</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>51</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>53</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>54</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>55</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>56</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>57</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>58</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>59</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>60</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>62</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>64</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>65</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>66</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>67</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>68</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>70</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>72</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>73</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>74</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>75</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>76</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>77</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>78</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>79</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>80</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>81</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>82</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>83</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>84</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>85</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>86</v>
       </c>
-      <c r="AP1" t="s">
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" t="s">
         <v>88</v>
       </c>
-      <c r="B2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>89</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>90</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>91</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>92</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>93</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>94</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>95</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>96</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" t="s">
         <v>97</v>
       </c>
-      <c r="L2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" t="s">
-        <v>88</v>
-      </c>
-      <c r="N2" t="s">
-        <v>88</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>98</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>99</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2" t="s">
+        <v>87</v>
+      </c>
+      <c r="U2" t="s">
         <v>100</v>
       </c>
-      <c r="R2" t="s">
-        <v>88</v>
-      </c>
-      <c r="S2" t="s">
-        <v>88</v>
-      </c>
-      <c r="T2" t="s">
-        <v>88</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>101</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>102</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>103</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>104</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>105</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>106</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC2" t="s">
         <v>107</v>
       </c>
-      <c r="AB2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>108</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>109</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>110</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>111</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>112</v>
       </c>
-      <c r="AH2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM2" t="s">
         <v>113</v>
       </c>
-      <c r="AK2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>88</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AN2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO2" t="s">
         <v>114</v>
       </c>
-      <c r="AN2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>115</v>
-      </c>
       <c r="AP2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
